--- a/srv/public/sample_data.xlsx
+++ b/srv/public/sample_data.xlsx
@@ -9,15 +9,16 @@
     <sheet sheetId="3" name="Operations" state="visible" r:id="rId6"/>
     <sheet sheetId="4" name="Sales_Orders" state="visible" r:id="rId7"/>
     <sheet sheetId="5" name="Penalty_Rules" state="visible" r:id="rId8"/>
-    <sheet sheetId="6" name="Component_Availability" state="visible" r:id="rId9"/>
-    <sheet sheetId="7" name="Weekly_Capacity" state="visible" r:id="rId10"/>
+    <sheet sheetId="6" name="Priority_Delivery_Criteria" state="visible" r:id="rId9"/>
+    <sheet sheetId="7" name="Component_Availability" state="visible" r:id="rId10"/>
+    <sheet sheetId="8" name="Weekly_Capacity" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="195">
   <si>
     <t>Product Id</t>
   </si>
@@ -154,201 +155,210 @@
     <t>SO0001</t>
   </si>
   <si>
+    <t>2025-06-26</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>0010, 0020, 0030, 0040</t>
+  </si>
+  <si>
+    <t>Engine:3, Chassis:3, Hydraulics:3, Electronics:3, Tires:12, Battery:3</t>
+  </si>
+  <si>
+    <t>SO0002</t>
+  </si>
+  <si>
+    <t>2025-08-14</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Engine:2, Chassis:2, Hydraulics:2, Electronics:2, Tires:8, Battery:2</t>
+  </si>
+  <si>
+    <t>SO0003</t>
+  </si>
+  <si>
+    <t>2025-07-31</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Engine:4, Chassis:4, Hydraulics:4, Electronics:4, Tires:16, Battery:4</t>
+  </si>
+  <si>
+    <t>SO0004</t>
+  </si>
+  <si>
     <t>2025-08-21</t>
   </si>
   <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>0010, 0020, 0030, 0040</t>
+    <t>Engine:5, Chassis:5, Hydraulics:10, Electronics:5, Tires:20, Battery:5</t>
+  </si>
+  <si>
+    <t>SO0005</t>
+  </si>
+  <si>
+    <t>Engine:2, Chassis:2, Hydraulics:4, Electronics:2, Tires:8</t>
+  </si>
+  <si>
+    <t>SO0006</t>
+  </si>
+  <si>
+    <t>2025-06-12</t>
   </si>
   <si>
     <t>Engine:4, Chassis:4, Hydraulics:8, Electronics:4, Tires:16</t>
   </si>
   <si>
-    <t>SO0002</t>
+    <t>SO0007</t>
+  </si>
+  <si>
+    <t>2025-07-03</t>
+  </si>
+  <si>
+    <t>Engine:5, Chassis:5, Hydraulics:10, Electronics:5, Tires:20</t>
+  </si>
+  <si>
+    <t>SO0008</t>
+  </si>
+  <si>
+    <t>SO0009</t>
+  </si>
+  <si>
+    <t>2025-06-05</t>
+  </si>
+  <si>
+    <t>SO0010</t>
+  </si>
+  <si>
+    <t>SO0011</t>
+  </si>
+  <si>
+    <t>2025-07-10</t>
+  </si>
+  <si>
+    <t>Engine:1, Chassis:1, Hydraulics:1, Electronics:1, Tires:4, Battery:1</t>
+  </si>
+  <si>
+    <t>SO0012</t>
+  </si>
+  <si>
+    <t>SO0013</t>
+  </si>
+  <si>
+    <t>2025-08-07</t>
+  </si>
+  <si>
+    <t>SO0014</t>
+  </si>
+  <si>
+    <t>Engine:3, Chassis:3, Hydraulics:6, Electronics:3, Tires:12, Battery:3</t>
+  </si>
+  <si>
+    <t>SO0015</t>
+  </si>
+  <si>
+    <t>2025-06-19</t>
+  </si>
+  <si>
+    <t>Engine:4, Chassis:4, Hydraulics:8, Electronics:4, Tires:16, Battery:4</t>
+  </si>
+  <si>
+    <t>SO0016</t>
+  </si>
+  <si>
+    <t>SO0017</t>
+  </si>
+  <si>
+    <t>SO0018</t>
   </si>
   <si>
     <t>2025-07-24</t>
   </si>
   <si>
+    <t>Engine:1, Chassis:1, Hydraulics:2, Electronics:1, Tires:4, Battery:1</t>
+  </si>
+  <si>
+    <t>SO0019</t>
+  </si>
+  <si>
+    <t>SO0020</t>
+  </si>
+  <si>
     <t>Engine:5, Chassis:5, Hydraulics:5, Electronics:5, Tires:20, Battery:5</t>
   </si>
   <si>
-    <t>SO0003</t>
+    <t>SO0021</t>
+  </si>
+  <si>
+    <t>SO0022</t>
   </si>
   <si>
     <t>2025-07-17</t>
   </si>
   <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Engine:1, Chassis:1, Hydraulics:2, Electronics:1, Tires:4, Battery:1</t>
-  </si>
-  <si>
-    <t>SO0004</t>
-  </si>
-  <si>
-    <t>2025-07-31</t>
-  </si>
-  <si>
-    <t>Engine:3, Chassis:3, Hydraulics:3, Electronics:3, Tires:12, Battery:3</t>
-  </si>
-  <si>
-    <t>SO0005</t>
-  </si>
-  <si>
-    <t>2025-07-03</t>
-  </si>
-  <si>
-    <t>Low</t>
+    <t>SO0023</t>
+  </si>
+  <si>
+    <t>Engine:3, Chassis:3, Hydraulics:6, Electronics:3, Tires:12</t>
+  </si>
+  <si>
+    <t>SO0024</t>
+  </si>
+  <si>
+    <t>SO0025</t>
+  </si>
+  <si>
+    <t>SO0026</t>
+  </si>
+  <si>
+    <t>SO0027</t>
+  </si>
+  <si>
+    <t>SO0028</t>
+  </si>
+  <si>
+    <t>SO0029</t>
+  </si>
+  <si>
+    <t>SO0030</t>
+  </si>
+  <si>
+    <t>SO0031</t>
+  </si>
+  <si>
+    <t>SO0032</t>
+  </si>
+  <si>
+    <t>SO0033</t>
+  </si>
+  <si>
+    <t>SO0034</t>
+  </si>
+  <si>
+    <t>Engine:2, Chassis:2, Hydraulics:4, Electronics:2, Tires:8, Battery:2</t>
+  </si>
+  <si>
+    <t>SO0035</t>
+  </si>
+  <si>
+    <t>SO0036</t>
+  </si>
+  <si>
+    <t>SO0037</t>
+  </si>
+  <si>
+    <t>SO0038</t>
   </si>
   <si>
     <t>Engine:1, Chassis:1, Hydraulics:2, Electronics:1, Tires:4</t>
   </si>
   <si>
-    <t>SO0006</t>
-  </si>
-  <si>
-    <t>Engine:4, Chassis:4, Hydraulics:4, Electronics:4, Tires:16, Battery:4</t>
-  </si>
-  <si>
-    <t>SO0007</t>
-  </si>
-  <si>
-    <t>SO0008</t>
-  </si>
-  <si>
-    <t>2025-07-10</t>
-  </si>
-  <si>
-    <t>Engine:3, Chassis:3, Hydraulics:6, Electronics:3, Tires:12, Battery:3</t>
-  </si>
-  <si>
-    <t>SO0009</t>
-  </si>
-  <si>
-    <t>2025-06-05</t>
-  </si>
-  <si>
-    <t>Engine:2, Chassis:2, Hydraulics:2, Electronics:2, Tires:8, Battery:2</t>
-  </si>
-  <si>
-    <t>SO0010</t>
-  </si>
-  <si>
-    <t>Engine:5, Chassis:5, Hydraulics:10, Electronics:5, Tires:20</t>
-  </si>
-  <si>
-    <t>SO0011</t>
-  </si>
-  <si>
-    <t>2025-08-14</t>
-  </si>
-  <si>
-    <t>Engine:4, Chassis:4, Hydraulics:8, Electronics:4, Tires:16, Battery:4</t>
-  </si>
-  <si>
-    <t>SO0012</t>
-  </si>
-  <si>
-    <t>2025-06-19</t>
-  </si>
-  <si>
-    <t>SO0013</t>
-  </si>
-  <si>
-    <t>SO0014</t>
-  </si>
-  <si>
-    <t>Engine:2, Chassis:2, Hydraulics:4, Electronics:2, Tires:8</t>
-  </si>
-  <si>
-    <t>SO0015</t>
-  </si>
-  <si>
-    <t>2025-06-26</t>
-  </si>
-  <si>
-    <t>SO0016</t>
-  </si>
-  <si>
-    <t>SO0017</t>
-  </si>
-  <si>
-    <t>SO0018</t>
-  </si>
-  <si>
-    <t>SO0019</t>
-  </si>
-  <si>
-    <t>SO0020</t>
-  </si>
-  <si>
-    <t>SO0021</t>
-  </si>
-  <si>
-    <t>2025-06-12</t>
-  </si>
-  <si>
-    <t>SO0022</t>
-  </si>
-  <si>
-    <t>Engine:3, Chassis:3, Hydraulics:6, Electronics:3, Tires:12</t>
-  </si>
-  <si>
-    <t>SO0023</t>
-  </si>
-  <si>
-    <t>SO0024</t>
-  </si>
-  <si>
-    <t>SO0025</t>
-  </si>
-  <si>
-    <t>SO0026</t>
-  </si>
-  <si>
-    <t>SO0027</t>
-  </si>
-  <si>
-    <t>SO0028</t>
-  </si>
-  <si>
-    <t>SO0029</t>
-  </si>
-  <si>
-    <t>SO0030</t>
-  </si>
-  <si>
-    <t>SO0031</t>
-  </si>
-  <si>
-    <t>SO0032</t>
-  </si>
-  <si>
-    <t>SO0033</t>
-  </si>
-  <si>
-    <t>SO0034</t>
-  </si>
-  <si>
-    <t>SO0035</t>
-  </si>
-  <si>
-    <t>SO0036</t>
-  </si>
-  <si>
-    <t>SO0037</t>
-  </si>
-  <si>
-    <t>SO0038</t>
-  </si>
-  <si>
-    <t>2025-08-07</t>
-  </si>
-  <si>
     <t>SO0039</t>
   </si>
   <si>
@@ -376,9 +386,6 @@
     <t>SO0047</t>
   </si>
   <si>
-    <t>Engine:1, Chassis:1, Hydraulics:1, Electronics:1, Tires:4, Battery:1</t>
-  </si>
-  <si>
     <t>SO0048</t>
   </si>
   <si>
@@ -392,6 +399,24 @@
   </si>
   <si>
     <t>No Fulfillment Penalty</t>
+  </si>
+  <si>
+    <t>Max Delay Days</t>
+  </si>
+  <si>
+    <t>Penalty Multiplier</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Medium priority - up to 1 week delay allowed</t>
+  </si>
+  <si>
+    <t>Low priority - up to 2 weeks delay allowed</t>
+  </si>
+  <si>
+    <t>High priority - must be on time or early</t>
   </si>
   <si>
     <t>Component Id</t>
@@ -1088,7 +1113,7 @@
         <v>500</v>
       </c>
       <c r="D2" s="3">
-        <v>12.096153846153847</v>
+        <v>12.057692307692308</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1102,7 +1127,7 @@
         <v>600</v>
       </c>
       <c r="D3" s="3">
-        <v>12</v>
+        <v>11.73076923076923</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1116,7 +1141,7 @@
         <v>300</v>
       </c>
       <c r="D4" s="3">
-        <v>11.826923076923077</v>
+        <v>12.038461538461538</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1130,7 +1155,7 @@
         <v>350</v>
       </c>
       <c r="D5" s="3">
-        <v>13.23076923076923</v>
+        <v>12.403846153846153</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1144,7 +1169,7 @@
         <v>400</v>
       </c>
       <c r="D6" s="3">
-        <v>11.673076923076923</v>
+        <v>11.326923076923077</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1158,7 +1183,7 @@
         <v>200</v>
       </c>
       <c r="D7" s="3">
-        <v>10.76923076923077</v>
+        <v>12.038461538461538</v>
       </c>
     </row>
   </sheetData>
@@ -1283,19 +1308,19 @@
         <v>44</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D2" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" s="3">
-        <v>148910.09428133344</v>
+        <v>65096.9184435335</v>
       </c>
       <c r="F2" s="3">
-        <v>90118.8531549916</v>
+        <v>51358.323156841805</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>46</v>
@@ -1312,138 +1337,138 @@
         <v>49</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3" s="3">
-        <v>200514.84276515388</v>
+        <v>99266.87559673737</v>
       </c>
       <c r="F3" s="3">
-        <v>140854.8183560076</v>
+        <v>74876.83947287573</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D4" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E4" s="3">
-        <v>36979.58375585251</v>
+        <v>198161.42318382073</v>
       </c>
       <c r="F4" s="3">
-        <v>29253.246940634734</v>
+        <v>147889.0759285973</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D5" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E5" s="3">
-        <v>128031.61831886342</v>
+        <v>170029.32900490932</v>
       </c>
       <c r="F5" s="3">
-        <v>82787.60627500262</v>
+        <v>103644.7190197788</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D6" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="3">
-        <v>36747.56426966448</v>
+        <v>83089.85344312235</v>
       </c>
       <c r="F6" s="3">
-        <v>25375.182864718634</v>
+        <v>65502.56828572751</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="D7" s="3">
         <v>4</v>
       </c>
       <c r="E7" s="3">
-        <v>196998.84409469916</v>
+        <v>149096.83261107162</v>
       </c>
       <c r="F7" s="3">
-        <v>148838.38928909425</v>
+        <v>115779.97325055434</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>47</v>
@@ -1457,48 +1482,48 @@
         <v>65</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D8" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E8" s="3">
-        <v>76297.87965146784</v>
+        <v>127887.65926479537</v>
       </c>
       <c r="F8" s="3">
-        <v>58880.78734082366</v>
+        <v>81233.33479723152</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D9" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" s="3">
-        <v>131452.76091913471</v>
+        <v>132441.15675558342</v>
       </c>
       <c r="F9" s="3">
-        <v>103469.10361527922</v>
+        <v>98953.23407419074</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>46</v>
@@ -1507,7 +1532,7 @@
         <v>47</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1515,7 +1540,7 @@
         <v>69</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>70</v>
@@ -1524,126 +1549,126 @@
         <v>2</v>
       </c>
       <c r="E10" s="3">
-        <v>79103.57301522396</v>
+        <v>43521.95852617711</v>
       </c>
       <c r="F10" s="3">
-        <v>56902.52391878411</v>
+        <v>31724.849019701254</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" s="3">
-        <v>202312.64375654835</v>
+        <v>109369.49699595832</v>
       </c>
       <c r="F11" s="3">
-        <v>144091.30315165545</v>
+        <v>84336.69677183795</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D12" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E12" s="3">
-        <v>121134.6769623298</v>
+        <v>26348.75001042371</v>
       </c>
       <c r="F12" s="3">
-        <v>84071.78614685018</v>
+        <v>15994.427554311946</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="D13" s="3">
         <v>3</v>
       </c>
       <c r="E13" s="3">
-        <v>92206.31017508318</v>
+        <v>99806.6942490556</v>
       </c>
       <c r="F13" s="3">
-        <v>63814.165901785156</v>
+        <v>75878.15968966384</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="D14" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E14" s="3">
-        <v>231280.3981868128</v>
+        <v>83447.54552083953</v>
       </c>
       <c r="F14" s="3">
-        <v>147189.6825882866</v>
+        <v>51311.4246551646</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>46</v>
@@ -1652,433 +1677,433 @@
         <v>47</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="D15" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" s="3">
-        <v>94808.7195154067</v>
+        <v>119648.94812298534</v>
       </c>
       <c r="F15" s="3">
-        <v>65256.322202460906</v>
+        <v>92108.57254163708</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D16" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E16" s="3">
-        <v>97489.47472843723</v>
+        <v>143798.52095164743</v>
       </c>
       <c r="F16" s="3">
-        <v>62490.152073554265</v>
+        <v>94653.66909805709</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D17" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17" s="3">
-        <v>92950.60646747664</v>
+        <v>152608.9496369444</v>
       </c>
       <c r="F17" s="3">
-        <v>63787.671398520026</v>
+        <v>104519.42074188897</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D18" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>51844.26326322678</v>
+        <v>176642.17583177483</v>
       </c>
       <c r="F18" s="3">
-        <v>32010.421304036918</v>
+        <v>133266.70418284764</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="D19" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E19" s="3">
-        <v>151575.7581012152</v>
+        <v>26894.97316042208</v>
       </c>
       <c r="F19" s="3">
-        <v>91024.74284752103</v>
+        <v>18762.207944794216</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D20" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>147986.8424445314</v>
+        <v>148874.89612607108</v>
       </c>
       <c r="F20" s="3">
-        <v>109597.6082121947</v>
+        <v>116775.26052647123</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D21" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E21" s="3">
-        <v>56504.69123718462</v>
+        <v>168391.91901222809</v>
       </c>
       <c r="F21" s="3">
-        <v>39691.21524926015</v>
+        <v>129711.32690674427</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="D22" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E22" s="3">
-        <v>198745.95749089995</v>
+        <v>72123.11192698538</v>
       </c>
       <c r="F22" s="3">
-        <v>150317.00491010345</v>
+        <v>46469.08787716482</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="D23" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E23" s="3">
-        <v>119188.91176169747</v>
+        <v>117496.76508995354</v>
       </c>
       <c r="F23" s="3">
-        <v>83826.07692025742</v>
+        <v>89004.1196081066</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="D24" s="3">
         <v>3</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="3">
-        <v>4</v>
-      </c>
       <c r="E24" s="3">
-        <v>119466.85334071444</v>
+        <v>82711.88538221637</v>
       </c>
       <c r="F24" s="3">
-        <v>72996.17342694117</v>
+        <v>53177.52311586407</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D25" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E25" s="3">
-        <v>164907.70815852477</v>
+        <v>44108.01044877761</v>
       </c>
       <c r="F25" s="3">
-        <v>110348.25572246798</v>
+        <v>30242.045688748683</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="D26" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E26" s="3">
-        <v>148811.53779823793</v>
+        <v>78438.22078792629</v>
       </c>
       <c r="F26" s="3">
-        <v>110741.08414257999</v>
+        <v>53440.92546574467</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="D27" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E27" s="3">
-        <v>247578.30498992171</v>
+        <v>23512.783286568603</v>
       </c>
       <c r="F27" s="3">
-        <v>172609.83433906178</v>
+        <v>15444.611888261239</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D28" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E28" s="3">
-        <v>139295.03430667016</v>
+        <v>29778.044593301296</v>
       </c>
       <c r="F28" s="3">
-        <v>105254.17815928366</v>
+        <v>20056.87171247653</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="D29" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E29" s="3">
-        <v>114118.97824443261</v>
+        <v>23035.4738399171</v>
       </c>
       <c r="F29" s="3">
-        <v>73983.57899534176</v>
+        <v>17608.16576253828</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>46</v>
@@ -2087,56 +2112,56 @@
         <v>47</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="D30" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E30" s="3">
-        <v>130800.72803015944</v>
+        <v>123118.98246018162</v>
       </c>
       <c r="F30" s="3">
-        <v>92909.88199756698</v>
+        <v>85612.31496539351</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D31" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E31" s="3">
-        <v>122670.97136499385</v>
+        <v>103661.93673499001</v>
       </c>
       <c r="F31" s="3">
-        <v>79247.91341511603</v>
+        <v>78652.13415910152</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>46</v>
@@ -2145,114 +2170,114 @@
         <v>47</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
       </c>
       <c r="E32" s="3">
-        <v>33920.91974155945</v>
+        <v>33854.10236268032</v>
       </c>
       <c r="F32" s="3">
-        <v>25755.842323255823</v>
+        <v>25187.62911730981</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="D33" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E33" s="3">
-        <v>133644.00558355183</v>
+        <v>119028.47723284761</v>
       </c>
       <c r="F33" s="3">
-        <v>103867.56676253917</v>
+        <v>77926.07733753046</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="D34" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E34" s="3">
-        <v>41989.89872374722</v>
+        <v>75855.95158609448</v>
       </c>
       <c r="F34" s="3">
-        <v>27770.664253278002</v>
+        <v>57566.34120620812</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D35" s="3">
         <v>2</v>
       </c>
       <c r="E35" s="3">
-        <v>58338.41672464788</v>
+        <v>94506.37056628116</v>
       </c>
       <c r="F35" s="3">
-        <v>35382.816239674576</v>
+        <v>65242.324906945825</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>46</v>
@@ -2261,471 +2286,471 @@
         <v>47</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="D36" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E36" s="3">
-        <v>87045.78388808199</v>
+        <v>91734.7661635652</v>
       </c>
       <c r="F36" s="3">
-        <v>65686.88861507173</v>
+        <v>55793.11990711506</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="D37" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E37" s="3">
-        <v>47245.08416124577</v>
+        <v>145147.36913311094</v>
       </c>
       <c r="F37" s="3">
-        <v>31234.808080864022</v>
+        <v>110496.70325563841</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="D38" s="3">
         <v>5</v>
       </c>
       <c r="E38" s="3">
-        <v>94245.94479854393</v>
+        <v>188272.01114032257</v>
       </c>
       <c r="F38" s="3">
-        <v>65956.9707236678</v>
+        <v>139529.67062966904</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="D39" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39" s="3">
-        <v>92190.46219762976</v>
+        <v>20903.277491931563</v>
       </c>
       <c r="F39" s="3">
-        <v>62173.357145238515</v>
+        <v>13875.893872349545</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D40" s="3">
         <v>4</v>
       </c>
       <c r="E40" s="3">
-        <v>107284.45195627346</v>
+        <v>114151.29901718633</v>
       </c>
       <c r="F40" s="3">
-        <v>70297.34127704406</v>
+        <v>72648.2766708859</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D41" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E41" s="3">
-        <v>179997.35212464954</v>
+        <v>76010.44331511811</v>
       </c>
       <c r="F41" s="3">
-        <v>109170.32821487465</v>
+        <v>47709.06545336739</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="D42" s="3">
         <v>5</v>
       </c>
       <c r="E42" s="3">
-        <v>125491.85822931607</v>
+        <v>133072.2509203498</v>
       </c>
       <c r="F42" s="3">
-        <v>78834.37724107841</v>
+        <v>94234.57282392285</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D43" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43" s="3">
-        <v>40284.68312232886</v>
+        <v>34557.99962892999</v>
       </c>
       <c r="F43" s="3">
-        <v>29806.846867576452</v>
+        <v>21606.213335177436</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="D44" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44" s="3">
-        <v>28682.20401193036</v>
+        <v>30608.26569619748</v>
       </c>
       <c r="F44" s="3">
-        <v>17799.406961927674</v>
+        <v>19287.72331640078</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D45" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E45" s="3">
-        <v>37765.71391479277</v>
+        <v>101388.45610964562</v>
       </c>
       <c r="F45" s="3">
-        <v>27223.09597820721</v>
+        <v>63222.943035129654</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D46" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46" s="3">
-        <v>76170.64852874378</v>
+        <v>29515.533288435876</v>
       </c>
       <c r="F46" s="3">
-        <v>47704.03875464858</v>
+        <v>22859.89250905376</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="D47" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E47" s="3">
-        <v>105550.97381571695</v>
+        <v>107871.358564787</v>
       </c>
       <c r="F47" s="3">
-        <v>77909.36933262544</v>
+        <v>67144.87830575042</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D48" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E48" s="3">
-        <v>29563.825685209995</v>
+        <v>164324.19092364534</v>
       </c>
       <c r="F48" s="3">
-        <v>19032.18595491991</v>
+        <v>98944.59731120306</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D49" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E49" s="3">
-        <v>45101.32381978148</v>
+        <v>245199.90652244445</v>
       </c>
       <c r="F49" s="3">
-        <v>30317.72618131782</v>
+        <v>174856.46528276577</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="D50" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50" s="3">
-        <v>46043.40211409918</v>
+        <v>92113.58085652057</v>
       </c>
       <c r="F50" s="3">
-        <v>32504.439797150822</v>
+        <v>55505.61859167783</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>119</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D51" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E51" s="3">
-        <v>69589.1459581115</v>
+        <v>60685.37374612547</v>
       </c>
       <c r="F51" s="3">
-        <v>54858.33965765598</v>
+        <v>41686.819950530284</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2751,15 +2776,15 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -2773,7 +2798,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
@@ -2787,7 +2812,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>9</v>
@@ -2801,7 +2826,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>12</v>
@@ -2815,7 +2840,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -2829,7 +2854,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>3</v>
@@ -2843,7 +2868,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
@@ -2857,7 +2882,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>9</v>
@@ -2871,7 +2896,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>12</v>
@@ -2885,7 +2910,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>15</v>
@@ -2899,7 +2924,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>3</v>
@@ -2913,7 +2938,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>6</v>
@@ -2927,7 +2952,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>9</v>
@@ -2941,7 +2966,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>12</v>
@@ -2955,7 +2980,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>15</v>
@@ -2974,6 +2999,77 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="4" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="3">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="3">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C313"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
@@ -2983,802 +3079,802 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C2" s="3">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C3" s="3">
-        <v>82</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C4" s="3">
-        <v>62</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C5" s="3">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C6" s="3">
-        <v>150</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C7" s="3">
-        <v>123</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C8" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C9" s="3">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C10" s="3">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C11" s="3">
-        <v>110</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C12" s="3">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C13" s="3">
-        <v>190</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C14" s="3">
-        <v>175</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C15" s="3">
-        <v>121</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C16" s="3">
-        <v>178</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C17" s="3">
-        <v>83</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C18" s="3">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C19" s="3">
-        <v>175</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C20" s="3">
-        <v>84</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C21" s="3">
-        <v>183</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C22" s="3">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C23" s="3">
-        <v>179</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C24" s="3">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C25" s="3">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C26" s="3">
-        <v>53</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C27" s="3">
-        <v>107</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C28" s="3">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C29" s="3">
-        <v>67</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C30" s="3">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C31" s="3">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C32" s="3">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C33" s="3">
-        <v>72</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C34" s="3">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C35" s="3">
-        <v>140</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C36" s="3">
-        <v>127</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C37" s="3">
-        <v>92</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C38" s="3">
-        <v>133</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="C39" s="3">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C40" s="3">
-        <v>86</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C41" s="3">
-        <v>136</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C42" s="3">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C43" s="3">
-        <v>84</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C44" s="3">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C45" s="3">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C46" s="3">
-        <v>165</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C47" s="3">
-        <v>142</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C48" s="3">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C49" s="3">
-        <v>57</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C50" s="3">
-        <v>164</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C51" s="3">
-        <v>75</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C52" s="3">
-        <v>187</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C53" s="3">
-        <v>188</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C54" s="3">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C55" s="3">
-        <v>199</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C56" s="3">
-        <v>81</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C57" s="3">
-        <v>86</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C58" s="3">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C59" s="3">
-        <v>199</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C60" s="3">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C61" s="3">
-        <v>178</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C62" s="3">
-        <v>104</v>
+        <v>197</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C63" s="3">
         <v>138</v>
-      </c>
-      <c r="C63" s="3">
-        <v>198</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C64" s="3">
-        <v>54</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C65" s="3">
-        <v>98</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C66" s="3">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C67" s="3">
-        <v>122</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C68" s="3">
-        <v>112</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C69" s="3">
-        <v>144</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C70" s="3">
-        <v>187</v>
+        <v>161</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C71" s="3">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C72" s="3">
-        <v>139</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C73" s="3">
         <v>133</v>
@@ -3786,175 +3882,175 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C74" s="3">
-        <v>151</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C75" s="3">
-        <v>192</v>
+        <v>118</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C76" s="3">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C77" s="3">
-        <v>96</v>
+        <v>198</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C78" s="3">
-        <v>156</v>
+        <v>116</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C79" s="3">
-        <v>186</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C80" s="3">
-        <v>98</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C81" s="3">
-        <v>181</v>
+        <v>112</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C82" s="3">
-        <v>60</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C83" s="3">
-        <v>106</v>
+        <v>56</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C84" s="3">
-        <v>76</v>
+        <v>179</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C85" s="3">
-        <v>139</v>
+        <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C86" s="3">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C87" s="3">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C88" s="3">
-        <v>64</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C89" s="3">
         <v>52</v>
@@ -3962,2466 +4058,2466 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C90" s="3">
-        <v>197</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="C91" s="3">
-        <v>63</v>
+        <v>113</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C92" s="3">
-        <v>75</v>
+        <v>162</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C93" s="3">
-        <v>101</v>
+        <v>141</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C94" s="3">
-        <v>81</v>
+        <v>58</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C95" s="3">
-        <v>117</v>
+        <v>155</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C96" s="3">
-        <v>157</v>
+        <v>117</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C97" s="3">
-        <v>74</v>
+        <v>167</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B98" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B98" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="C98" s="3">
-        <v>110</v>
+        <v>161</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C99" s="3">
-        <v>116</v>
+        <v>151</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C100" s="3">
-        <v>100</v>
+        <v>157</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C101" s="3">
-        <v>125</v>
+        <v>59</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C102" s="3">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C103" s="3">
-        <v>70</v>
+        <v>169</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C104" s="3">
-        <v>88</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C105" s="3">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C106" s="3">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C107" s="3">
-        <v>101</v>
+        <v>64</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C108" s="3">
-        <v>136</v>
+        <v>51</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C109" s="3">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C110" s="3">
-        <v>156</v>
+        <v>137</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C111" s="3">
-        <v>183</v>
+        <v>58</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C112" s="3">
-        <v>191</v>
+        <v>164</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C113" s="3">
-        <v>109</v>
+        <v>90</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C114" s="3">
-        <v>131</v>
+        <v>68</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C115" s="3">
-        <v>191</v>
+        <v>136</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C116" s="3">
-        <v>122</v>
+        <v>193</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C117" s="3">
-        <v>70</v>
+        <v>93</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C118" s="3">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C119" s="3">
-        <v>117</v>
+        <v>61</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C120" s="3">
-        <v>191</v>
+        <v>155</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C121" s="3">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C122" s="3">
         <v>182</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C122" s="3">
-        <v>59</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C123" s="3">
-        <v>185</v>
+        <v>107</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C124" s="3">
-        <v>125</v>
+        <v>159</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C125" s="3">
-        <v>197</v>
+        <v>149</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C126" s="3">
-        <v>138</v>
+        <v>103</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C127" s="3">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C128" s="3">
-        <v>68</v>
+        <v>110</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C129" s="3">
-        <v>118</v>
+        <v>58</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C130" s="3">
-        <v>186</v>
+        <v>142</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C131" s="3">
-        <v>168</v>
+        <v>131</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C132" s="3">
-        <v>180</v>
+        <v>135</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C133" s="3">
-        <v>154</v>
+        <v>199</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C134" s="3">
-        <v>157</v>
+        <v>174</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C135" s="3">
-        <v>191</v>
+        <v>149</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C136" s="3">
-        <v>82</v>
+        <v>131</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C137" s="3">
-        <v>171</v>
+        <v>65</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C138" s="3">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C139" s="3">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C140" s="3">
-        <v>117</v>
+        <v>155</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C141" s="3">
-        <v>101</v>
+        <v>125</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C142" s="3">
-        <v>60</v>
+        <v>87</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="C143" s="3">
-        <v>147</v>
+        <v>91</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C144" s="3">
-        <v>175</v>
+        <v>70</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C145" s="3">
-        <v>132</v>
+        <v>102</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C146" s="3">
-        <v>94</v>
+        <v>61</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C147" s="3">
-        <v>178</v>
+        <v>91</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C148" s="3">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C149" s="3">
-        <v>189</v>
+        <v>155</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C150" s="3">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B151" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B151" s="3" t="s">
-        <v>174</v>
-      </c>
       <c r="C151" s="3">
-        <v>52</v>
+        <v>189</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C152" s="3">
-        <v>138</v>
+        <v>193</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C153" s="3">
-        <v>171</v>
+        <v>88</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C154" s="3">
-        <v>56</v>
+        <v>124</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C155" s="3">
-        <v>139</v>
+        <v>98</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C156" s="3">
-        <v>69</v>
+        <v>121</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C157" s="3">
-        <v>175</v>
+        <v>104</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C158" s="3">
-        <v>82</v>
+        <v>149</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C159" s="3">
-        <v>197</v>
+        <v>68</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C160" s="3">
-        <v>61</v>
+        <v>157</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C161" s="3">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C162" s="3">
-        <v>145</v>
+        <v>180</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C163" s="3">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C164" s="3">
-        <v>54</v>
+        <v>192</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C165" s="3">
-        <v>112</v>
+        <v>172</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C166" s="3">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C167" s="3">
-        <v>184</v>
+        <v>146</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C168" s="3">
         <v>183</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C168" s="3">
-        <v>112</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C169" s="3">
-        <v>177</v>
+        <v>190</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C170" s="3">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C171" s="3">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C172" s="3">
-        <v>184</v>
+        <v>100</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C173" s="3">
-        <v>175</v>
+        <v>190</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C174" s="3">
-        <v>116</v>
+        <v>69</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C175" s="3">
-        <v>117</v>
+        <v>175</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C176" s="3">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C177" s="3">
-        <v>144</v>
+        <v>72</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C178" s="3">
-        <v>129</v>
+        <v>98</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B179" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C179" s="3">
         <v>150</v>
-      </c>
-      <c r="C179" s="3">
-        <v>107</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C180" s="3">
-        <v>157</v>
+        <v>64</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C181" s="3">
-        <v>109</v>
+        <v>126</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C182" s="3">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C183" s="3">
-        <v>95</v>
+        <v>67</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C184" s="3">
-        <v>91</v>
+        <v>188</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C185" s="3">
-        <v>102</v>
+        <v>57</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C186" s="3">
-        <v>178</v>
+        <v>86</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C187" s="3">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C188" s="3">
-        <v>78</v>
+        <v>161</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C189" s="3">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C190" s="3">
-        <v>161</v>
+        <v>115</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C191" s="3">
-        <v>100</v>
+        <v>136</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C192" s="3">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C193" s="3">
-        <v>55</v>
+        <v>171</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C194" s="3">
-        <v>123</v>
+        <v>148</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="C195" s="3">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C196" s="3">
-        <v>185</v>
+        <v>141</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C197" s="3">
-        <v>62</v>
+        <v>110</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C198" s="3">
-        <v>66</v>
+        <v>132</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C199" s="3">
-        <v>79</v>
+        <v>105</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C200" s="3">
-        <v>97</v>
+        <v>76</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C201" s="3">
-        <v>185</v>
+        <v>124</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C202" s="3">
-        <v>123</v>
+        <v>148</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C203" s="3">
-        <v>160</v>
+        <v>123</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B204" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B204" s="3" t="s">
-        <v>175</v>
-      </c>
       <c r="C204" s="3">
-        <v>97</v>
+        <v>156</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C205" s="3">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C206" s="3">
-        <v>116</v>
+        <v>154</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C207" s="3">
-        <v>152</v>
+        <v>105</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C208" s="3">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C209" s="3">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C210" s="3">
-        <v>199</v>
+        <v>85</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C211" s="3">
-        <v>184</v>
+        <v>53</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C212" s="3">
-        <v>94</v>
+        <v>154</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C213" s="3">
-        <v>162</v>
+        <v>110</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C214" s="3">
-        <v>109</v>
+        <v>149</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C215" s="3">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C216" s="3">
-        <v>159</v>
+        <v>180</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C217" s="3">
-        <v>75</v>
+        <v>94</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C218" s="3">
-        <v>164</v>
+        <v>187</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C219" s="3">
-        <v>171</v>
+        <v>87</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C220" s="3">
-        <v>63</v>
+        <v>129</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C221" s="3">
-        <v>104</v>
+        <v>198</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C222" s="3">
-        <v>137</v>
+        <v>81</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C223" s="3">
-        <v>114</v>
+        <v>65</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C224" s="3">
-        <v>154</v>
+        <v>91</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C225" s="3">
-        <v>96</v>
+        <v>168</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C226" s="3">
-        <v>174</v>
+        <v>53</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C227" s="3">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C228" s="3">
-        <v>151</v>
+        <v>118</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C229" s="3">
-        <v>89</v>
+        <v>50</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C230" s="3">
-        <v>58</v>
+        <v>127</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C231" s="3">
-        <v>66</v>
+        <v>92</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C232" s="3">
-        <v>99</v>
+        <v>154</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C233" s="3">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C234" s="3">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C235" s="3">
-        <v>166</v>
+        <v>91</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C236" s="3">
-        <v>157</v>
+        <v>90</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C237" s="3">
-        <v>187</v>
+        <v>79</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C238" s="3">
-        <v>83</v>
+        <v>195</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C239" s="3">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C240" s="3">
-        <v>82</v>
+        <v>150</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C241" s="3">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C242" s="3">
-        <v>75</v>
+        <v>195</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C243" s="3">
-        <v>156</v>
+        <v>82</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C244" s="3">
-        <v>97</v>
+        <v>195</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C245" s="3">
-        <v>85</v>
+        <v>168</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C246" s="3">
-        <v>91</v>
+        <v>112</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="C247" s="3">
-        <v>191</v>
+        <v>50</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C248" s="3">
-        <v>123</v>
+        <v>51</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C249" s="3">
-        <v>168</v>
+        <v>96</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C250" s="3">
-        <v>69</v>
+        <v>128</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C251" s="3">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C252" s="3">
         <v>184</v>
-      </c>
-      <c r="B252" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C252" s="3">
-        <v>93</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C253" s="3">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C254" s="3">
-        <v>86</v>
+        <v>162</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C255" s="3">
-        <v>162</v>
+        <v>108</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C256" s="3">
-        <v>54</v>
+        <v>100</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B257" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B257" s="3" t="s">
-        <v>176</v>
-      </c>
       <c r="C257" s="3">
-        <v>53</v>
+        <v>151</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C258" s="3">
-        <v>103</v>
+        <v>174</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C259" s="3">
-        <v>167</v>
+        <v>101</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C260" s="3">
-        <v>72</v>
+        <v>136</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C261" s="3">
-        <v>175</v>
+        <v>153</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C262" s="3">
-        <v>189</v>
+        <v>69</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C263" s="3">
-        <v>188</v>
+        <v>97</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C264" s="3">
-        <v>138</v>
+        <v>197</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C265" s="3">
-        <v>164</v>
+        <v>68</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C266" s="3">
-        <v>77</v>
+        <v>179</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C267" s="3">
-        <v>195</v>
+        <v>81</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C268" s="3">
-        <v>74</v>
+        <v>187</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C269" s="3">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C270" s="3">
-        <v>56</v>
+        <v>192</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C271" s="3">
-        <v>174</v>
+        <v>71</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C272" s="3">
-        <v>58</v>
+        <v>107</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C273" s="3">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C274" s="3">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C275" s="3">
-        <v>63</v>
+        <v>163</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C276" s="3">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C277" s="3">
-        <v>84</v>
+        <v>175</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C278" s="3">
-        <v>103</v>
+        <v>125</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C279" s="3">
-        <v>99</v>
+        <v>122</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C280" s="3">
-        <v>197</v>
+        <v>128</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C281" s="3">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C282" s="3">
-        <v>93</v>
+        <v>135</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C283" s="3">
-        <v>106</v>
+        <v>72</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C284" s="3">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C285" s="3">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C286" s="3">
-        <v>119</v>
+        <v>72</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C287" s="3">
-        <v>118</v>
+        <v>161</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C288" s="3">
-        <v>120</v>
+        <v>102</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C289" s="3">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C290" s="3">
-        <v>189</v>
+        <v>73</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C291" s="3">
-        <v>186</v>
+        <v>111</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C292" s="3">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C293" s="3">
-        <v>70</v>
+        <v>111</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C294" s="3">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C295" s="3">
-        <v>112</v>
+        <v>176</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C296" s="3">
-        <v>157</v>
+        <v>90</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C297" s="3">
-        <v>158</v>
+        <v>132</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C298" s="3">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="C299" s="3">
-        <v>99</v>
+        <v>71</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C300" s="3">
-        <v>161</v>
+        <v>88</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C301" s="3">
-        <v>178</v>
+        <v>126</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C302" s="3">
-        <v>133</v>
+        <v>72</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C303" s="3">
-        <v>69</v>
+        <v>115</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C304" s="3">
-        <v>129</v>
+        <v>158</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C305" s="3">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C306" s="3">
-        <v>166</v>
+        <v>194</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C307" s="3">
-        <v>93</v>
+        <v>152</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C308" s="3">
-        <v>89</v>
+        <v>103</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C309" s="3">
-        <v>58</v>
+        <v>158</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B310" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B310" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="C310" s="3">
-        <v>137</v>
+        <v>60</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C311" s="3">
-        <v>137</v>
+        <v>65</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C312" s="3">
-        <v>98</v>
+        <v>65</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C313" s="3">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -6430,7 +6526,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C73"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
@@ -6443,10 +6539,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -6454,10 +6550,10 @@
         <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C2" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -6465,10 +6561,10 @@
         <v>22</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C3" s="3">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -6476,10 +6572,10 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C4" s="3">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -6487,10 +6583,10 @@
         <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C5" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -6498,10 +6594,10 @@
         <v>22</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C6" s="3">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -6509,10 +6605,10 @@
         <v>22</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C7" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -6520,10 +6616,10 @@
         <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C8" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -6531,10 +6627,10 @@
         <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C9" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -6542,10 +6638,10 @@
         <v>22</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C10" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -6553,10 +6649,10 @@
         <v>22</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C11" s="3">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -6564,7 +6660,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C12" s="3">
         <v>6</v>
@@ -6575,10 +6671,10 @@
         <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C13" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -6586,10 +6682,10 @@
         <v>23</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C14" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -6597,10 +6693,10 @@
         <v>23</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C15" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -6608,10 +6704,10 @@
         <v>23</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C16" s="3">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -6619,10 +6715,10 @@
         <v>23</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C17" s="3">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -6630,10 +6726,10 @@
         <v>23</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C18" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -6641,10 +6737,10 @@
         <v>23</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C19" s="3">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -6652,7 +6748,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C20" s="3">
         <v>5</v>
@@ -6663,10 +6759,10 @@
         <v>23</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C21" s="3">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -6674,10 +6770,10 @@
         <v>23</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C22" s="3">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -6685,7 +6781,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C23" s="3">
         <v>9</v>
@@ -6696,10 +6792,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C24" s="3">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -6707,10 +6803,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C25" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -6718,10 +6814,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C26" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -6729,10 +6825,10 @@
         <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C27" s="3">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -6740,10 +6836,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C28" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -6751,10 +6847,10 @@
         <v>24</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C29" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -6762,10 +6858,10 @@
         <v>24</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C30" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -6773,10 +6869,10 @@
         <v>24</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C31" s="3">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -6784,10 +6880,10 @@
         <v>24</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C32" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -6795,10 +6891,10 @@
         <v>24</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C33" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -6806,10 +6902,10 @@
         <v>24</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C34" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -6817,10 +6913,10 @@
         <v>24</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C35" s="3">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -6828,10 +6924,10 @@
         <v>24</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C36" s="3">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -6839,10 +6935,10 @@
         <v>24</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C37" s="3">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -6850,10 +6946,10 @@
         <v>25</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C38" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -6861,10 +6957,10 @@
         <v>25</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C39" s="3">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -6872,10 +6968,10 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C40" s="3">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -6883,10 +6979,10 @@
         <v>25</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C41" s="3">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -6894,10 +6990,10 @@
         <v>25</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C42" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -6905,10 +7001,10 @@
         <v>25</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C43" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -6916,10 +7012,10 @@
         <v>25</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C44" s="3">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -6927,10 +7023,10 @@
         <v>25</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C45" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -6938,10 +7034,10 @@
         <v>25</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C46" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -6949,10 +7045,10 @@
         <v>25</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C47" s="3">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -6960,10 +7056,10 @@
         <v>25</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C48" s="3">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -6971,10 +7067,10 @@
         <v>25</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C49" s="3">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -6982,10 +7078,10 @@
         <v>26</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C50" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -6993,10 +7089,10 @@
         <v>26</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C51" s="3">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -7004,10 +7100,10 @@
         <v>26</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C52" s="3">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -7015,10 +7111,10 @@
         <v>26</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C53" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -7026,7 +7122,7 @@
         <v>26</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C54" s="3">
         <v>5</v>
@@ -7037,10 +7133,10 @@
         <v>26</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C55" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -7048,7 +7144,7 @@
         <v>26</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C56" s="3">
         <v>19</v>
@@ -7059,10 +7155,10 @@
         <v>26</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C57" s="3">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -7070,10 +7166,10 @@
         <v>26</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C58" s="3">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -7081,10 +7177,10 @@
         <v>26</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C59" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -7092,10 +7188,10 @@
         <v>26</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C60" s="3">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -7103,10 +7199,10 @@
         <v>26</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C61" s="3">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -7114,10 +7210,10 @@
         <v>27</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C62" s="3">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -7125,10 +7221,10 @@
         <v>27</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C63" s="3">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -7136,7 +7232,7 @@
         <v>27</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C64" s="3">
         <v>5</v>
@@ -7147,10 +7243,10 @@
         <v>27</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C65" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -7158,10 +7254,10 @@
         <v>27</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C66" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -7169,10 +7265,10 @@
         <v>27</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C67" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -7180,10 +7276,10 @@
         <v>27</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C68" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -7191,10 +7287,10 @@
         <v>27</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C69" s="3">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -7202,10 +7298,10 @@
         <v>27</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C70" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -7213,10 +7309,10 @@
         <v>27</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C71" s="3">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -7224,10 +7320,10 @@
         <v>27</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C72" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -7235,10 +7331,10 @@
         <v>27</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C73" s="3">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
